--- a/1e jaar (2018 - 2019)/2e semester/databanken/project/finished/boxing_club_R5-6_g03.xlsx
+++ b/1e jaar (2018 - 2019)/2e semester/databanken/project/finished/boxing_club_R5-6_g03.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larsd\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\Downloads\pieter_files\school\1e jaar (2018 - 2019)\2e semester\databanken\project\finished\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0640854-02D8-45C4-B3B0-EE83DB55812C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539EF33C-0915-488B-AB7B-DF9FF384C538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>EERD maken</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 uur </t>
+  </si>
+  <si>
+    <t>ziek</t>
   </si>
 </sst>
 </file>
@@ -133,7 +136,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -149,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -450,20 +453,20 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="7" max="7" width="36.1796875" customWidth="1"/>
+    <col min="8" max="8" width="23.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -491,7 +494,7 @@
       </c>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -520,7 +523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -540,10 +543,14 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
